--- a/LLAFramework/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/QuestionConfig.xlsx
+++ b/LLAFramework/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/QuestionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionConfig" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,11 +50,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>索引</t>
   </si>
   <si>
+    <t>编号</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
   <si>
     <t>Type</t>
@@ -1190,7 +1196,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1198,15 +1204,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="13" width="7.375" customWidth="1"/>
-    <col min="14" max="22" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="14" width="7.375" customWidth="1"/>
+    <col min="15" max="23" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1222,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1273,277 +1279,292 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
         <v>27</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s">
-        <v>45</v>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1">
-        <v>100001</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="O4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1">
-        <v>100002</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
